--- a/server/excel/registros.xlsx
+++ b/server/excel/registros.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5DA5A8-8D13-448B-8275-F90AA8567150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22025B04-A7A9-45DF-97D7-582A8D70BE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Nombre</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Modelos de autos</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -412,15 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,6 +444,17 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/server/excel/registros.xlsx
+++ b/server/excel/registros.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22025B04-A7A9-45DF-97D7-582A8D70BE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Formulario" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Formulario" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Nombre</t>
   </si>
@@ -38,31 +34,96 @@
     <t>Modelos de autos</t>
   </si>
   <si>
-    <t/>
+    <t xml:space="preserve">Daniel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ojeda </t>
+  </si>
+  <si>
+    <t>fútbol</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>ford, chrysler</t>
+  </si>
+  <si>
+    <t>fafda</t>
+  </si>
+  <si>
+    <t>fdagfa</t>
+  </si>
+  <si>
+    <t>natación</t>
+  </si>
+  <si>
+    <t>No estoy seguro</t>
+  </si>
+  <si>
+    <t>Santa Rosa</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>ford, nissan</t>
+  </si>
+  <si>
+    <t>yayayaya</t>
+  </si>
+  <si>
+    <t>ñañañañaña</t>
+  </si>
+  <si>
+    <t>baloncesto</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>Chiquimula</t>
+  </si>
+  <si>
+    <t>ford, chrysler, toyota, nissan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE775"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -70,12 +131,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,51 +484,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/server/excel/registros.xlsx
+++ b/server/excel/registros.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Nombre</t>
   </si>
@@ -40,58 +40,79 @@
     <t xml:space="preserve">Ojeda </t>
   </si>
   <si>
-    <t>fútbol</t>
+    <t>baloncesto</t>
   </si>
   <si>
     <t>Masculino</t>
   </si>
   <si>
-    <t>Guatemala</t>
+    <t>Petén</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>ford, chrysler, toyota, nissan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose </t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>béisbol</t>
+  </si>
+  <si>
+    <t>No estoy seguro</t>
+  </si>
+  <si>
+    <t>Huehuetenango</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>ford, chrysler</t>
   </si>
   <si>
-    <t>fafda</t>
-  </si>
-  <si>
-    <t>fdagfa</t>
-  </si>
-  <si>
-    <t>natación</t>
-  </si>
-  <si>
-    <t>No estoy seguro</t>
+    <t xml:space="preserve">Maria </t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>ford, toyota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jarol </t>
+  </si>
+  <si>
+    <t>Lemus</t>
+  </si>
+  <si>
+    <t>tenis</t>
+  </si>
+  <si>
+    <t>Chiquimula</t>
+  </si>
+  <si>
+    <t>toyota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramos </t>
   </si>
   <si>
     <t>Santa Rosa</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>ford, nissan</t>
-  </si>
-  <si>
-    <t>yayayaya</t>
-  </si>
-  <si>
-    <t>ñañañañaña</t>
-  </si>
-  <si>
-    <t>baloncesto</t>
-  </si>
-  <si>
-    <t>Femenino</t>
-  </si>
-  <si>
-    <t>Chiquimula</t>
-  </si>
-  <si>
-    <t>ford, chrysler, toyota, nissan</t>
+    <t>ford</t>
   </si>
 </sst>
 </file>
@@ -485,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
@@ -573,19 +594,65 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/server/excel/registros.xlsx
+++ b/server/excel/registros.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Nombre</t>
   </si>
@@ -113,6 +113,24 @@
   </si>
   <si>
     <t>ford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villegas </t>
+  </si>
+  <si>
+    <t>natación</t>
+  </si>
+  <si>
+    <t>ford, nissan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruben </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuesta </t>
   </si>
 </sst>
 </file>
@@ -506,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="12" customWidth="1"/>
@@ -655,6 +673,52 @@
         <v>33</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
